--- a/data/financial_statements/socf/MKTX.xlsx
+++ b/data/financial_statements/socf/MKTX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,1525 +593,1528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-190998000</v>
+      </c>
+      <c r="C2">
         <v>59307000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>66922000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>64769000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>52185000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>57958000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>67288000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>80457000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>72931000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>67776000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>83854000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>74816000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>50273000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>54002000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>48105000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>52522000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>45831000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>38594000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>40487000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>47940000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>33473000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>34130000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>38023000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>42463000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>33165000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>30918000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>33126000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>28963000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>24491000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>22715000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>24238000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>24593000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>21636000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>17504000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>18191000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>17475000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>23133000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>18214000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>19343000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>15326000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>16535000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>16643000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>16770000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>16351000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>15651000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14801000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>13443000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12288000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10853000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>9985000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>9712000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>9221000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>8169000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>7889000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>7373000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5848000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>6173000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>5790000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>5269000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>5208000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>4583000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>4790000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>4693000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>4292000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>4325000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>4540000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>4681000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>4685000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>4642000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>4603000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>4612000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>4425000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>4482000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>4351000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>4121000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>3746000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>3559000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>3177000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>2569000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>-7426000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4982000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>7456000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7082000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8192000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7143000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8015000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8138000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10365000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7798000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>9411000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8826000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>6386000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>5538000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>7218000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2964000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2664000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>3037000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>6012000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>9696000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2448000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3097000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5770000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2681000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2005000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1419000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>5825000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2069000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1143000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2122000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>4761000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>641000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1557000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2722000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>4475000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-7182000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>648000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1679000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>4761000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-283000</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>-12029000</v>
+        <v>41233000</v>
       </c>
       <c r="D5">
-        <v>-11699000</v>
+        <v>93912000</v>
       </c>
       <c r="E5">
-        <v>-153131000</v>
+        <v>-307714000</v>
       </c>
       <c r="F5">
-        <v>19254000</v>
+        <v>134976000</v>
       </c>
       <c r="G5">
+        <v>-57419000</v>
+      </c>
+      <c r="H5">
         <v>446000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-7880000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-180654000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>17225000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-5817000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-31640000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>12517000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-6596000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4570000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-13453000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>4443000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-210000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>5605000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-14955000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>10182000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-7866000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1444000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-6113000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>6010000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>6238000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-10331000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-12346000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>8847000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-2398000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-908000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-12289000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3148000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>4443000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-1845000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-4919000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>3056000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2657000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-6291000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-1136000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>1448000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1453000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-117000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-397000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>46000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-11411000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3882000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4464000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-1098000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5810000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>56105000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4068000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-9252000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2642000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4469000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-5431000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>9845000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-6384000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1893000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-25528000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>8339000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>984000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-2715000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>341000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-2183000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>808000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-74488000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>-36705000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-84056000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>231083000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-72481000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>25197000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-34043000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>177541000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-6167000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>141470000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-12363000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>16392000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1180000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-1123000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2887000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-3764000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>9910000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>-945000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>5252000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>307000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1303000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>-2476000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-1515000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1074000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-302000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-62000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-2015000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>4723000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-1253000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>-5000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>400000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>849000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>576000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-3195000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>198000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1471000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-569000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-2106000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-1921000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>4960000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>-36705000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-84056000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>231083000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-72481000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>25197000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-34043000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>177541000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-4574000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>140446000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-12481000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>15941000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>491000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>1838000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-13224000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3049000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-4724000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2187000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-7915000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4814000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>6091000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6259000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1889000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1950000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>3466000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>382000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-5928000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2267000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>3720000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>409000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-5468000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>4304000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>9047000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-209000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-10434000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>7366000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>4064000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1013000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-7882000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>6026000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>368000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-2645000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-2374000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>3710000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>2475000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-2681000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-891000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>3462000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>689000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>2270000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>48586000</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C10">
-        <v>112785000</v>
+        <v>-1061000</v>
       </c>
       <c r="D10">
-        <v>-333812000</v>
+        <v>-1187000</v>
       </c>
       <c r="E10">
-        <v>301246000</v>
+        <v>-2445000</v>
       </c>
       <c r="F10">
-        <v>-65802000</v>
+        <v>4129000</v>
       </c>
       <c r="G10">
+        <v>2709000</v>
+      </c>
+      <c r="H10">
         <v>60519000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-303357000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>311806000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-299731000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>13534000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-18413000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1254000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>14542000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3739000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-16676000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2572000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>10473000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>4860000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-19145000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2408000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>12966000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1833000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-22382000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>5772000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>10157000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>8732000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-21096000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>4240000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>11854000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1708000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-16631000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>8219000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>9437000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3245000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-16496000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>296000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>11571000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>4660000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-15934000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>1798000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>161000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-1229000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-420000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>130000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-102000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-74000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-1277000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-1472000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>163000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2036000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-1664000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1182000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>291000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-587000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>248000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>991000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1200000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-186000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>663000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>550000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>347000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>393000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>584000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>825000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>4250000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>4969000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>4721000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>437000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>772000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>429000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>243000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>630000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>294000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>558000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>381000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>267000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-677000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-267000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>85098000</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>93637000</v>
+        <v>85051000</v>
       </c>
       <c r="D12">
-        <v>-23730000</v>
+        <v>93672000</v>
       </c>
       <c r="E12">
-        <v>145711000</v>
+        <v>-21814000</v>
       </c>
       <c r="F12">
-        <v>62813000</v>
+        <v>147771000</v>
       </c>
       <c r="G12">
+        <v>64373000</v>
+      </c>
+      <c r="H12">
         <v>96726000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-23159000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>227620000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-48353000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>104853000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>120369000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>89141000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>67692000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>69733000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>39369000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>70105000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>67994000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>54379000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>31439000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>46452000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>52465000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>38569000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>30549000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>56607000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>53236000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>32647000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-52743000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>48168000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>35743000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>30561000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>10034000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>41363000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>32177000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>26265000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>10147000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>23550000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>37080000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>19970000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>10279000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-12509000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-10421000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-10821000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-11399000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-12949000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-13936000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-12332000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-11482000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-11879000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-11198000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-11069000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-12154000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-9122000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-9591000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-3833000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-14601000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-10421000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-16703000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-5868000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-8218000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-4895000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-5123000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-7321000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-4691000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-3766000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-4359000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-5687000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-4137000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-4086000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-3690000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-3471000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-3373000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-2689000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-4532000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-4193000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-8519000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-4063000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-8540000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-2160000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
         <v>-34400000</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>-17078000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-22770000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>6000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-533000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-97430000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>9346000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>0</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-709000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-37118000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2009,1136 +2126,1136 @@
         <v>0</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>102061000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-428000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>36159000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2875000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>4548000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-11724000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>14410000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1275000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2840000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-20000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-6837000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>22478000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-8655000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-20179000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-21681000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-24621000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-22405000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-65000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>12000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>10200000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-28357000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-6174000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2404000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-8204000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>8126000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-2521000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>3750000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-9352000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-44073000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2415000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>33670000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-34400000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
         <v>-26164000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>33371000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-33371000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>27422000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-27422000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-7856000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-6784000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-6535000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-21243000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-52000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>20000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>17000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-15000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>14000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>9000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>40000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-24000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-6000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-20000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-28000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-5000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>31000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>284000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>73000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>26000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-501000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-137000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-23000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>19000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>16000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>628000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-27000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-6000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-22000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-59000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-1000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>64000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>-12509000</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18">
+        <v>-12064000</v>
+      </c>
+      <c r="D18">
         <v>-44821000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-10821000</v>
       </c>
-      <c r="E18">
-        <v>-11399000</v>
-      </c>
       <c r="F18">
-        <v>-12949000</v>
+        <v>-13710000</v>
       </c>
       <c r="G18">
+        <v>-10989000</v>
+      </c>
+      <c r="H18">
         <v>-31014000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-12332000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-34252000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>90188000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-11626000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>24557000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-106761000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-4554000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-21298000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>10562000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-13312000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-7572000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-16683000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-12729000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>14254000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-13570000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-25330000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-29007000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-29281000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-25887000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-4351000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>6339000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>5562000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-32580000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-9887000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-1048000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-11561000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>6065000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-7080000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-449000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-8547000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-48195000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-6835000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-5544000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-1401000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1488000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-1799000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-1663000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-2652000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-33256000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>34302000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-1119000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-1597000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-1556000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-1516000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-1629000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>148000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-48654000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-38750000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-44849000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-1953000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-9015000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-276000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2577000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-4156000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-5214000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-5335000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-5494000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-2407000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-3136000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-5012000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-4600000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-5065000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-6523000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-6010000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-5777000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-11903000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-11102000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-11707000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-9924000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-8440000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-2894000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-368000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-2839000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-5021000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-5227000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-8247000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-11411000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-11149000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-9936000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-2967000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>1223000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>436000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>750000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>630000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-26328000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-26102000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-27425000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-24793000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-24761000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-24784000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-25454000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-22462000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-22436000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-22424000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-23244000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-18998000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-18910000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-18911000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-19412000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-15539000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-15543000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-15536000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-15814000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-12171000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-12182000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-12179000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-12356000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-9581000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-9601000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-9586000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-9727000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-7333000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-7339000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-7345000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-7517000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-5879000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-5898000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-5932000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-6232000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-4809000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-4770000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-4853000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-5405000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-2252000</v>
       </c>
-      <c r="C22">
-        <v>-25825000</v>
-      </c>
       <c r="D22">
+        <v>-26164000</v>
+      </c>
+      <c r="E22">
         <v>-20292000</v>
       </c>
-      <c r="E22">
-        <v>-519000</v>
-      </c>
       <c r="F22">
-        <v>911000</v>
+        <v>33371000</v>
       </c>
       <c r="G22">
+        <v>-33371000</v>
+      </c>
+      <c r="H22">
         <v>-6860000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-27422000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-7856000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-6784000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-6535000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-21243000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-7549000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-6210000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-258000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-11803000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-103000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>57000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-376000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-7621000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-14785000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-4795000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-469000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-7642000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>756000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-344000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-355000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-5230000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-4248000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>240000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>989000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-1477000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>1028000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>587000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>283000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-2717000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>1895000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>337000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>644000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-3152000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>-28432000</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C23">
-        <v>-100581000</v>
+        <v>-29833000</v>
       </c>
       <c r="D23">
-        <v>-86467000</v>
+        <v>-102069000</v>
       </c>
       <c r="E23">
-        <v>-70161000</v>
+        <v>-88266000</v>
       </c>
       <c r="F23">
-        <v>-26849000</v>
+        <v>-71824000</v>
       </c>
       <c r="G23">
+        <v>-28455000</v>
+      </c>
+      <c r="H23">
         <v>-73915000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-18850000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-27741000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-33376000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-34173000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-49822000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-32041000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-27527000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-22305000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-36227000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-20242000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-20551000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-22435000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-29445000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-32733000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-28880000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-23750000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>-31705000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-18749000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-18385000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-12835000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-15325000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-14420000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-12120000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-11583000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-17241000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-16262000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-16460000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>-15585000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>-11916000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-1691000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-3997000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-3459000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-7927000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>-4217000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-19538000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-4356000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-2385000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-4457000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>764000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-1027000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5122000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>4109000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-318000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-3360000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2272000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-1282000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-922000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>943000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-314000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-472000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-744000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>-110000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>49000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>834000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>999000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-425000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-1778000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-795000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-181000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-4000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>42000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>70000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-876000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>379000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>284000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>164000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>-491000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-428000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-286000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>-691000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-127000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>203000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>39940000</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25">
-        <v>-71303000</v>
+        <v>38937000</v>
       </c>
       <c r="D25">
-        <v>-125374000</v>
+        <v>-72756000</v>
       </c>
       <c r="E25">
-        <v>61766000</v>
+        <v>-125257000</v>
       </c>
       <c r="F25">
-        <v>18558000</v>
+        <v>59852000</v>
       </c>
       <c r="G25">
+        <v>20472000</v>
+      </c>
+      <c r="H25">
         <v>-7439000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-55368000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>170749000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>12568000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>58736000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>91744000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-47389000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>34329000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>25208000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>14647000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>36237000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>39399000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>14517000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-10845000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>28022000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>10849000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-9512000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-30588000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>6799000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>8169000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>15280000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-61733000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>39352000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-8887000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>8215000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-7876000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>13824000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>21946000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>3109000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-2646000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>13026000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-15803000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>9549000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-2989000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>625567000</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3147,10 +3264,10 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>608050000</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3159,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>274253000</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3171,46 +3288,46 @@
         <v>0</v>
       </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>247458000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1136000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-1136000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>168150000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1136000</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>168243000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1136000</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <v>199728000</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -3219,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
         <v>168924000</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -3231,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
         <v>132691000</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -3243,967 +3360,976 @@
         <v>0</v>
       </c>
       <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
         <v>128908000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>39940000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-71303000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>500193000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>61766000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>18558000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-7439000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>552682000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>170749000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>12568000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>58736000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>365997000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-47389000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>34329000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>25208000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>262105000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>36237000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>40535000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>13381000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>157305000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>29158000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>10849000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-9512000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>137655000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>7935000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>8169000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>15280000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>137995000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>39352000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-8887000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>8215000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>161048000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>13824000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>21946000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>3109000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>130045000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>13026000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-15803000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>9549000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>125919000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>7351000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>6503000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>8099000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>7002000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>6754000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>6134000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>7424000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>6694000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>6451000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>5791000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>6677000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>6225000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>7944000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>5929000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5196000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>4299000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>3950000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>3650000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>3951000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>3432000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>3521000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>3525000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>3943000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>3875000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>3699000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>3443000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>3494000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>3243000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>3251000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>2983000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>3042000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>2590000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>2528000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>2335000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>2316000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>2460000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>2241000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>2181000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1997000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>79855000</v>
+      </c>
+      <c r="C29">
         <v>-26328000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-26102000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-27425000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-24793000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-24761000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-24784000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-25454000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-22462000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-22436000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-22424000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-23244000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-18998000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-18910000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-18911000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-19412000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-15539000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-15543000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-15536000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-15814000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-12171000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-12182000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-12179000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-12356000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-9581000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-9601000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-9586000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-9727000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-7333000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-7339000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-7345000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-7517000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-5879000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-5898000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-5932000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-6232000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-4809000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-4770000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-4853000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-5405000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>-0.0342</v>
+        <v>-0.0451</v>
       </c>
       <c r="C30">
-        <v>-0.0266</v>
+        <v>-0.0382</v>
       </c>
       <c r="D30">
-        <v>-0.0259</v>
+        <v>-0.0302</v>
       </c>
       <c r="E30">
-        <v>-0.0247</v>
+        <v>-0.0287</v>
       </c>
       <c r="F30">
-        <v>-0.0192</v>
+        <v>-0.027</v>
       </c>
       <c r="G30">
+        <v>-0.0214</v>
+      </c>
+      <c r="H30">
         <v>-0.0181</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.015</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.0164</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.0113</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-0.0185</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-0.0248</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-0.0217</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-0.0382</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-0.0358</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-0.043</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-0.0623</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-0.0694</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-0.0567</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-0.051</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-0.0542</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-0.0549</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0493</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-0.0516</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-0.0655</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-0.0544</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-0.0559</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-0.0621</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-0.06950000000000001</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-0.0751</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-0.06950000000000001</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-0.07340000000000001</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-0.0883</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-0.093</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-0.0994</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-0.08799999999999999</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-0.08119999999999999</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-0.08019999999999999</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-0.0847</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-0.1043</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>14884000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>4929000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-111496000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>70513000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-19118000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>7596000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-125000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>135540000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-135875000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>3053000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>24394000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>22485000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-2047000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>7910000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-27157000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>15214000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>19572000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3865000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-27596000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-2588000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>10754000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-7688000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-22770000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>15885000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>15163000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-10688000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-97181000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>12202000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>6806000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-1174000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-24361000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>14418000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>8004000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>707000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-16482000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>3472000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>14392000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-3552000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-12110000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-34400000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>102061000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-428000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>36159000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2875000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>4548000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-11724000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>14410000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1275000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2840000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-20000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-6837000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>22478000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-8655000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-20179000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-21681000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-24621000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-22405000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-65000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>12000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>10200000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-28357000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-6174000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2404000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-8204000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>8126000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-2521000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>3750000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-9352000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-44073000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>2415000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>33670000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>148000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-48654000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-38750000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-44849000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-1953000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-9015000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-276000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2577000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-4156000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-5214000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-5335000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-5494000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-2407000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-3136000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-5012000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-4600000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-5065000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-6523000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-6010000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-5777000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-11903000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-11102000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-11707000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-9924000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-8440000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-2894000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-368000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-2839000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-5021000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-5227000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-8247000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-11411000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-11149000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-9936000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-2967000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>1223000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>436000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>750000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>630000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>148000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-48654000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-38750000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-44849000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-1953000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-9015000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-276000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2577000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-4156000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>-5214000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-5335000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-5494000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-2407000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-3136000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-5012000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-4600000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>-5065000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-6523000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-6010000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-5777000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-11903000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-11102000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-11707000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-9924000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-8440000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>-2894000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-368000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-2839000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-5021000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>-5227000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>-8247000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>-11411000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>-11149000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>-9936000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>-2967000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>1223000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>436000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>750000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>630000</v>
       </c>
     </row>
